--- a/QC files/v_twocatstats.xlsx
+++ b/QC files/v_twocatstats.xlsx
@@ -475,38 +475,38 @@
         <v>2019</v>
       </c>
       <c r="C2" t="n">
-        <v>4.2399</v>
+        <v>4838.0908</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10457</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9951711969687621</v>
+        <v>3203.843550786274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>photography</t>
+          <t>No photography</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C3" t="n">
-        <v>4.2254</v>
+        <v>4774.8756</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10459</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.014940678483883</v>
+        <v>2999.117014559319</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C4" t="n">
-        <v>4.1387</v>
+        <v>5116.1814</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10466</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>1.034557961583297</v>
+        <v>2832.556373940988</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C5" t="n">
-        <v>4.1822</v>
+        <v>5811.2331</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>10470</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9540653255501252</v>
+        <v>2987.70311243074</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C6" t="n">
-        <v>4.1256</v>
+        <v>5339.2585</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10271</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>0.962791934484026</v>
+        <v>3125.330873642692</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
-        <v>4.2405</v>
+        <v>5183.014</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10402</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F7" t="n">
-        <v>1.160698064440269</v>
+        <v>3324.44250070117</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>4.2678</v>
+        <v>6025.0045</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10473</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9892482937005227</v>
+        <v>2803.418436375337</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0301</v>
+        <v>5952.2158</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10475</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="F9" t="n">
-        <v>1.009035057427132</v>
+        <v>2676.391888923157</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>3.973</v>
+        <v>5825.6812</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>9801</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F10" t="n">
-        <v>1.072303416408485</v>
+        <v>2936.56023245186</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C11" t="n">
-        <v>3.955</v>
+        <v>6430.3571</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>9617</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="F11" t="n">
-        <v>1.074955730666454</v>
+        <v>2968.842051321649</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C12" t="n">
-        <v>3.8883</v>
+        <v>5031.093</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>9589</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="F12" t="n">
-        <v>1.12096574391281</v>
+        <v>3574.066909057026</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="C13" t="n">
-        <v>4.1837</v>
+        <v>5871.9733</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>10400</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8730305973962217</v>
+        <v>2837.681565284512</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>4.2957</v>
+        <v>6125.0143</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>10401</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F14" t="n">
-        <v>1.141881841473354</v>
+        <v>3311.429857296681</v>
       </c>
     </row>
     <row r="15">
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C15" t="n">
-        <v>4.114</v>
+        <v>5220</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6019</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4421</v>
       </c>
       <c r="F15" t="n">
-        <v>1.233727570441343</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C16" t="n">
-        <v>4.1898</v>
+        <v>4968.3478</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>10458</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>1.022407359816184</v>
+        <v>2940.249950598351</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C17" t="n">
-        <v>4.4096</v>
+        <v>5263.9662</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>10392</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9446889534415738</v>
+        <v>2793.412720533262</v>
       </c>
     </row>
     <row r="18">
@@ -824,19 +824,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C18" t="n">
-        <v>4.2077</v>
+        <v>5804.0761</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>10469</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8342535002372906</v>
+        <v>2707.007285911699</v>
       </c>
     </row>
     <row r="19">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C19" t="n">
-        <v>4.3333</v>
+        <v>4588.75</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>9377</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F19" t="n">
-        <v>0.848454361991172</v>
+        <v>3269.200848449052</v>
       </c>
     </row>
     <row r="20">
@@ -868,19 +868,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="n">
-        <v>4.2577</v>
+        <v>4940.7973</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>10404</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8767130567203834</v>
+        <v>3066.758809239284</v>
       </c>
     </row>
     <row r="21">
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C21" t="n">
-        <v>3.9375</v>
+        <v>5137.9091</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>9516</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="F21" t="n">
-        <v>1.087930949095576</v>
+        <v>2420.619584642271</v>
       </c>
     </row>
     <row r="22">
@@ -912,19 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C22" t="n">
-        <v>4.75</v>
+        <v>5603.3846</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>9834</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>602</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6614378277661477</v>
+        <v>2429.146557056768</v>
       </c>
     </row>
     <row r="23">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C23" t="n">
-        <v>4.1818</v>
+        <v>5426.2105</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>9091</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>641</v>
       </c>
       <c r="F23" t="n">
-        <v>1.192261549873091</v>
+        <v>2679.066738111916</v>
       </c>
     </row>
     <row r="24">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C24" t="n">
-        <v>4.2308</v>
+        <v>3949.8571</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>10092</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>645</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9326427425370877</v>
+        <v>3627.605405717639</v>
       </c>
     </row>
     <row r="25">
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>4.1224</v>
+        <v>4873.8276</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>9552</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1089</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8720759436416937</v>
+        <v>2735.164435187556</v>
       </c>
     </row>
     <row r="26">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5970.7444</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>10474</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1100</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9258200997725518</v>
+        <v>2624.622955190627</v>
       </c>
     </row>
     <row r="27">
@@ -1022,41 +1022,41 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5070.8947</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>9088</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>1156</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7071067811865476</v>
+        <v>2618.434363362094</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>No photography</t>
+          <t>photography</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>4622.8333</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>9393</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>2533</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2285.093755674419</v>
       </c>
     </row>
   </sheetData>

--- a/QC files/v_twocatstats.xlsx
+++ b/QC files/v_twocatstats.xlsx
@@ -475,7 +475,7 @@
         <v>2019</v>
       </c>
       <c r="C2" t="n">
-        <v>4838.0908</v>
+        <v>4646.3389</v>
       </c>
       <c r="D2" t="n">
         <v>10457</v>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3203.843550786274</v>
+        <v>3188.412029179237</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         <v>2018</v>
       </c>
       <c r="C3" t="n">
-        <v>4774.8756</v>
+        <v>4611.9025</v>
       </c>
       <c r="D3" t="n">
         <v>10459</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2999.117014559319</v>
+        <v>2991.388907894374</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>5116.1814</v>
+        <v>5574.6047</v>
       </c>
       <c r="D4" t="n">
-        <v>10466</v>
+        <v>10400</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>2832.556373940988</v>
+        <v>2957.868065830876</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>5811.2331</v>
+        <v>4938.7555</v>
       </c>
       <c r="D5" t="n">
-        <v>10470</v>
+        <v>10466</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>2987.70311243074</v>
+        <v>2860.642612565746</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>5339.2585</v>
+        <v>5626.7131</v>
       </c>
       <c r="D6" t="n">
-        <v>10271</v>
+        <v>9801</v>
       </c>
       <c r="E6" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>3125.330873642692</v>
+        <v>2987.61337503228</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C7" t="n">
-        <v>5183.014</v>
+        <v>5125.3468</v>
       </c>
       <c r="D7" t="n">
-        <v>10402</v>
+        <v>10271</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>3324.44250070117</v>
+        <v>3169.132231450431</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C8" t="n">
-        <v>6025.0045</v>
+        <v>5587.1347</v>
       </c>
       <c r="D8" t="n">
-        <v>10473</v>
+        <v>10470</v>
       </c>
       <c r="E8" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
-        <v>2803.418436375337</v>
+        <v>3018.868369883348</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         <v>2014</v>
       </c>
       <c r="C9" t="n">
-        <v>5952.2158</v>
+        <v>5679.8311</v>
       </c>
       <c r="D9" t="n">
         <v>10475</v>
       </c>
       <c r="E9" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>2676.391888923157</v>
+        <v>2735.652503075841</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C10" t="n">
-        <v>5825.6812</v>
+        <v>5739.2341</v>
       </c>
       <c r="D10" t="n">
-        <v>9801</v>
+        <v>10473</v>
       </c>
       <c r="E10" t="n">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="F10" t="n">
-        <v>2936.56023245186</v>
+        <v>2871.885051797882</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C11" t="n">
-        <v>6430.3571</v>
+        <v>5021.351</v>
       </c>
       <c r="D11" t="n">
-        <v>9617</v>
+        <v>10402</v>
       </c>
       <c r="E11" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="F11" t="n">
-        <v>2968.842051321649</v>
+        <v>3327.076132785714</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>5031.093</v>
+        <v>5757.5513</v>
       </c>
       <c r="D12" t="n">
-        <v>9589</v>
+        <v>10401</v>
       </c>
       <c r="E12" t="n">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F12" t="n">
-        <v>3574.066909057026</v>
+        <v>3438.89735849181</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C13" t="n">
-        <v>5871.9733</v>
+        <v>6176.071</v>
       </c>
       <c r="D13" t="n">
-        <v>10400</v>
+        <v>9617</v>
       </c>
       <c r="E13" t="n">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="F13" t="n">
-        <v>2837.681565284512</v>
+        <v>3116.960276894658</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C14" t="n">
-        <v>6125.0143</v>
+        <v>5117.8409</v>
       </c>
       <c r="D14" t="n">
-        <v>10401</v>
+        <v>9589</v>
       </c>
       <c r="E14" t="n">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F14" t="n">
-        <v>3311.429857296681</v>
+        <v>3578.717723273506</v>
       </c>
     </row>
     <row r="15">
@@ -783,7 +783,7 @@
         <v>2019</v>
       </c>
       <c r="C16" t="n">
-        <v>4968.3478</v>
+        <v>4927.6623</v>
       </c>
       <c r="D16" t="n">
         <v>10458</v>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>2940.249950598351</v>
+        <v>2946.379678056931</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>2018</v>
       </c>
       <c r="C17" t="n">
-        <v>5263.9662</v>
+        <v>5175.1928</v>
       </c>
       <c r="D17" t="n">
         <v>10392</v>
@@ -814,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>2793.412720533262</v>
+        <v>2821.411953355368</v>
       </c>
     </row>
     <row r="18">
@@ -827,7 +827,7 @@
         <v>2016</v>
       </c>
       <c r="C18" t="n">
-        <v>5804.0761</v>
+        <v>5761.8663</v>
       </c>
       <c r="D18" t="n">
         <v>10469</v>
@@ -836,7 +836,7 @@
         <v>99</v>
       </c>
       <c r="F18" t="n">
-        <v>2707.007285911699</v>
+        <v>2699.707796244698</v>
       </c>
     </row>
     <row r="19">
@@ -871,7 +871,7 @@
         <v>2020</v>
       </c>
       <c r="C20" t="n">
-        <v>4940.7973</v>
+        <v>4954.9067</v>
       </c>
       <c r="D20" t="n">
         <v>10404</v>
@@ -880,7 +880,7 @@
         <v>223</v>
       </c>
       <c r="F20" t="n">
-        <v>3066.758809239284</v>
+        <v>3048.662159804236</v>
       </c>
     </row>
     <row r="21">
@@ -912,19 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C22" t="n">
-        <v>5603.3846</v>
+        <v>5848.2796</v>
       </c>
       <c r="D22" t="n">
-        <v>9834</v>
+        <v>10474</v>
       </c>
       <c r="E22" t="n">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="F22" t="n">
-        <v>2429.146557056768</v>
+        <v>2685.814953575811</v>
       </c>
     </row>
     <row r="23">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C23" t="n">
-        <v>5426.2105</v>
+        <v>5615.6091</v>
       </c>
       <c r="D23" t="n">
-        <v>9091</v>
+        <v>9834</v>
       </c>
       <c r="E23" t="n">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="F23" t="n">
-        <v>2679.066738111916</v>
+        <v>2420.030233170582</v>
       </c>
     </row>
     <row r="24">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C24" t="n">
-        <v>3949.8571</v>
+        <v>5275.15</v>
       </c>
       <c r="D24" t="n">
-        <v>10092</v>
+        <v>9091</v>
       </c>
       <c r="E24" t="n">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F24" t="n">
-        <v>3627.605405717639</v>
+        <v>2692.971412306488</v>
       </c>
     </row>
     <row r="25">
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C25" t="n">
-        <v>4873.8276</v>
+        <v>3949.8571</v>
       </c>
       <c r="D25" t="n">
-        <v>9552</v>
+        <v>10092</v>
       </c>
       <c r="E25" t="n">
-        <v>1089</v>
+        <v>645</v>
       </c>
       <c r="F25" t="n">
-        <v>2735.164435187556</v>
+        <v>3627.605405717639</v>
       </c>
     </row>
     <row r="26">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C26" t="n">
-        <v>5970.7444</v>
+        <v>4783.7333</v>
       </c>
       <c r="D26" t="n">
-        <v>10474</v>
+        <v>9552</v>
       </c>
       <c r="E26" t="n">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="F26" t="n">
-        <v>2624.622955190627</v>
+        <v>2732.607898855759</v>
       </c>
     </row>
     <row r="27">
@@ -1047,7 +1047,7 @@
         <v>2012</v>
       </c>
       <c r="C28" t="n">
-        <v>4622.8333</v>
+        <v>4402.1429</v>
       </c>
       <c r="D28" t="n">
         <v>9393</v>
@@ -1056,7 +1056,7 @@
         <v>2533</v>
       </c>
       <c r="F28" t="n">
-        <v>2285.093755674419</v>
+        <v>2183.558722333235</v>
       </c>
     </row>
   </sheetData>
